--- a/data/trans_bre/Predimed_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5704516267539206</v>
+        <v>0.5704516267539317</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.006822934993647416</v>
+        <v>0.00682293499364755</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.094755132259406</v>
+        <v>-2.979668292975912</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.03617807536059685</v>
+        <v>-0.03452611875636358</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.144248240564933</v>
+        <v>4.778123992923677</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.05123602865436296</v>
+        <v>0.05953702806482424</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-2.683959887115217</v>
+        <v>-2.683959887115195</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.03201766155703142</v>
+        <v>-0.03201766155703116</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.012904996707662</v>
+        <v>-4.96127662140973</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05891900505610865</v>
+        <v>-0.05834731972388321</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.2098672428404334</v>
+        <v>-0.3021243305568079</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.002512801648271057</v>
+        <v>-0.003699383319683355</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.091705690446556</v>
+        <v>-3.936598195269016</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.05100121622077756</v>
+        <v>-0.04971401470633138</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.874568209224878</v>
+        <v>4.894339725267402</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.06609979633863089</v>
+        <v>0.06541306784481683</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-1.313474991900687</v>
+        <v>-1.313474991900709</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01593962605681554</v>
+        <v>-0.0159396260568158</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.184062265931351</v>
+        <v>-3.149941610806964</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.03798680280131243</v>
+        <v>-0.03787503081873392</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5994743847733827</v>
+        <v>0.5361270359458814</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.007472745946056108</v>
+        <v>0.006592905339868879</v>
       </c>
     </row>
     <row r="16">
